--- a/app/templates/report/paises.xlsx
+++ b/app/templates/report/paises.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16BBDD1-37C2-4376-B0DA-536E44208ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -563,6 +563,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -759,17 +770,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -780,6 +780,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -798,17 +809,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>
